--- a/medicine/Enfance/Jon_Fosse/Jon_Fosse.xlsx
+++ b/medicine/Enfance/Jon_Fosse/Jon_Fosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jon Fosse, né le 29 septembre 1959 à Haugesund, est un écrivain norvégien. D'abord romancier et essayiste, il écrit également des poèmes et des livres de littérature d'enfance et de jeunesse.
-Il est lauréat du prix Nobel de littérature en 2023[1] et l'un des dramaturges vivants les plus connus au monde.
+Il est lauréat du prix Nobel de littérature en 2023 et l'un des dramaturges vivants les plus connus au monde.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jon Fosse est né sur la côte ouest de la Norvège. Il débute en 1983 avec son premier roman Raudt, svart (Rouge, noir). Il publie une quinzaine d'écrits avant de venir au théâtre. Sa première pièce, Et jamais nous ne serons séparés, est montée et publiée en 1994.
 Il reçoit le prix international Ibsen en 2010 pour Quelqu'un va venir.
@@ -520,7 +534,7 @@
 En 2011, l'État norvégien lui a offert d'occuper la résidence « La Grotte » (Grotten (en)), située à Oslo. « La Grotte » a d'abord été la demeure du poète Henrik Wergeland avant d'être celle du compositeur Christian Sinding, du poète Arnulf Øverland et du compositeur Arne Nordheim.
 Ses écrits (romans, nouvelles, poésie, essais et pièces de théâtre) ont été traduits dans plus de quarante langues, et ses pièces ont été montées par de grands metteurs en scène européens (Patrice Chéreau, Jacques Lassalle, Thomas Ostermeier, Claude Régy…).
 Son œuvre romanesque, traduite en français par Terje Sinding, est publiée par les Éditions Circé. Son œuvre théâtrale, également traduite par Terje Sinding, est parue chez l'Arche éditeur.
-Il est considéré comme l'un des plus grands auteurs contemporains et a été décoré de l'Ordre national du Mérite français en 2003[2].
+Il est considéré comme l'un des plus grands auteurs contemporains et a été décoré de l'Ordre national du Mérite français en 2003.
 Le 21 novembre 2009, le pape Benoît XVI lui a remis une médaille à l'occasion d'une rencontre avec des artistes dans la Chapelle Sixtine. Jon Fosse s'est converti au catholicisme en 2013.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Une écriture originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’œuvre théâtrale de Jon Fosse se caractérise par une écriture très épurée, minimale, répétitive avec d'infimes variations. La langue est banale, l'intrigue est pauvre, quasiment absente, l'ensemble paraît très simple. Mais l'auteur arrive à créer une tension extrême entre les personnages, dans un univers souvent très sombre. « Le langage signifie tour à tour une chose et son contraire et autre chose encore », affirme l'auteur.
 L'écriture de Jon Fosse ne comporte pas de ponctuation, et se remarque tout particulièrement l'absence de points d'interrogation, alors que les personnages sont perpétuellement en recherche, en attente, sous tension : jalousie, exaspération, angoisse, vide existentiel... Souvent confrontés à leur propre solitude, les personnages restent des inconnus et on ignore à peu près tout de leur passé. Ils sont stylisés et ne portent pas de nom : ils sont désignés par un terme générique : lui, elle, le fils, le père, l'un, l'autre... Seuls importent le moment présent et les tensions qui s'exaspèrent entre eux. L'intrigue elle-même est épurée au point de devenir presque abstraite ou conceptuelle : la rencontre, la séparation, l'abandon, la solitude... Elle donne souvent l'impression d'être inachevée ou de se conclure sur un moment d'incertitude, de passage. Il en résulte, pour le comédien et le spectateur, une sorte de frustration qui excite leur curiosité, éveille leur imaginaire.
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de la littérature nynorske (1992, 2003, 2019)
 Prix Aschehoug (en) (1997)
@@ -624,7 +642,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre national du Mérite (2003)
  Commandeur de l'ordre de Saint-Olaf (2005)</t>
@@ -657,8 +677,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Théâtre
-Og aldri skal vi skiljast, 1994.Et jamais nous ne serons séparés, traduit par Terje Sinding, Paris, L'Arche, 2000.
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Og aldri skal vi skiljast, 1994.Et jamais nous ne serons séparés, traduit par Terje Sinding, Paris, L'Arche, 2000.
 Namnet, 1995. Le Nom, traduit par Terje Sinding, Paris, L'Arche, 1998.
 Nokon kjem til å komme, 1996. Quelqu'un va venir, traduit par Terje Sinding, Paris, L'Arche, 1999.
 Barnet, 1996.L'Enfant, traduit par Terje Sinding, Paris, L'Arche, 1998.
@@ -671,7 +696,7 @@
 Medan lyset går ned og alt blir svart (Quand la lumière baisse et que le noir se fait), 1999.
 Sov du vesle barnet mitt, 2000.Dors mon petit enfant, traduit par Terje Sinding, Paris, L'Arche, 2000.
  Besøk, 2000.Visites, traduit par Terje Sinding, Paris, L'Arche, 2002.
-Vinter, 2000[3].Hiver, traduit par Terje Sinding, Paris, L'Arche, 2003.
+Vinter, 2000.Hiver, traduit par Terje Sinding, Paris, L'Arche, 2003.
 Ettermiddag (Après-midi), 2000.
 Vakkert (Beau), 2001.
 Dødsvariasjonar, 2001.Variations sur la mort, traduit par Terje Sinding, Paris, L'Arche, 2002.
@@ -687,9 +712,43 @@
 Eg er vinden, 2007.Je suis le vent, traduit par Terje Sinding, Paris, L'Arche, 2010.
 Desse auga, 2009. Ces yeux, traduit par Marianne Ségol-Samoy, Paris, L'Arche, 2020.
 Ylajali, 2012.Ylajali, traduit par Gabriel Dufay et Camilla Bouchet, Paris, L'Arche, 2012.
-Sterk vind, 2021.Vent fort, traduit par Marianne Ségol-Samoy, Paris, L'Arche, 2024.
-Romans et textes en prose
-Raudt, svart (Rouge, noir) (1983)
+Sterk vind, 2021.Vent fort, traduit par Marianne Ségol-Samoy, Paris, L'Arche, 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans et textes en prose</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Raudt, svart (Rouge, noir) (1983)
 Stengd gitar (Guitare fermée) (1985)
 Blod. Steinen er. (Sang. La pierre est.) (1987)
 Naustet (La Remise à bateaux) (1989) - traduit par Terje Sinding (éditions Circé, 2007)
@@ -707,57 +766,199 @@
 Kveldsvœvd (Au tomber de la nuit) (2014) - traduit par Terje Sinding (éditions Circé, 2016)
 Det andre namnet - Septologien I-II, 2019.L'Autre Nom, Septologie I-II, traduit par Jean-Baptiste Coursaud, Paris, Christian Bourgois éditeur, 2021.
 Eg er ein annan - Septologien III-V (2020)
-Eit nytt namn - Septologien VI-VII (2021)
-Poésie
-Engel med vatn i augene (Ange aux yeux humides) (1986)
+Eit nytt namn - Septologien VI-VII (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Engel med vatn i augene (Ange aux yeux humides) (1986)
 Hundens bevegelsar (Les Mouvements du chien) (1990)
 Hund og engel (Chien et Ange) (1992)
 Dikt (1986-1992) (Poésie complète 1986-1992) (1995)
 Nye dikt (Nouveaux poèmes) (1997)
 Dikt (1986-2001) (Poésie complète 1986-2001) (2001)
 Auge i vind (Yeux dans le vent) (2003)
-Stein til stein (Pierre après pierre) (2013)
-Contes pour enfants
-Si lentement (Uendeleg seint, 1989)
+Stein til stein (Pierre après pierre) (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Si lentement (Uendeleg seint, 1989)
 Kant, 1990
 Le Zoo Hardanger (Dyrehagen Hardanger, 1993)
 Noir et humide (Vått og svart, 1994)
-Petite Sœur (Søster, 2000)
-Série Le Manuscrit des chiens
-Le Manuscrit des chiens I, L'Arche, 2010 (Hundemanuskripta I - Nei a nei, 1995), trad. Terje Sinding, 96 p.  (ISBN 9782851817051)
+Petite Sœur (Søster, 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Le Manuscrit des chiens</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Manuscrit des chiens I, L'Arche, 2010 (Hundemanuskripta I - Nei a nei, 1995), trad. Terje Sinding, 96 p.  (ISBN 9782851817051)
 Le Manuscrit des chiens II, L'Arche, 2010 (Hundemanuskripta II - Du a Du, 1996), trad. Terje Sinding, 48 p.  (ISBN 9782851817242)
-Le Manuscrit des chiens III, L'Arche, 2002 (Hundemanuskripta III - Fy a Fy, 1997), trad. Terje Sinding, 48 p.  (ISBN 9782851815149)
-Essais
-De la narration à l'écriture (Frå telling via showing til writing, 1989)
+Le Manuscrit des chiens III, L'Arche, 2002 (Hundemanuskripta III - Fy a Fy, 1997), trad. Terje Sinding, 48 p.  (ISBN 9782851815149)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>De la narration à l'écriture (Frå telling via showing til writing, 1989)
 Essais gnostiques (Gnostiske essay, 1999)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jon_Fosse</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jon_Fosse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Mise en scène notables</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1999 : Quelqu'un va venir, mise en scène Claude Régy.
 2003 : Variations sur la mort, mise en scène Claude Régy.
